--- a/static/고씨장학금.xlsx
+++ b/static/고씨장학금.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TG\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syl0217/Github/ko-website/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBBB3F5-2B6F-9343-A68B-16B591336F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14010" windowHeight="11100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -923,19 +924,11 @@
     <t>목포종문회</t>
   </si>
   <si>
-    <t>고광수</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>전남목포</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>대구경북종문회</t>
-  </si>
-  <si>
-    <t>고원규</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>통영종문회</t>
@@ -1785,21 +1778,27 @@
   <si>
     <t>2022.01.01 ~ 2022.04.30(접수순)</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고광수</t>
+  </si>
+  <si>
+    <t>고덕환</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="###,###,###"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="###,###,###"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1823,7 +1822,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1969,19 +1968,19 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1990,7 +1989,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -2004,8 +2003,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2282,20 +2281,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="13.625" style="1" customWidth="1"/>
+    <col min="1" max="6" width="13.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="33" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="30.75" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -2305,17 +2304,17 @@
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="F2" s="3" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="18" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -2335,7 +2334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="18" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -2355,12 +2354,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="18" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="18" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -2380,7 +2379,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="18" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -2400,7 +2399,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="18" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -2420,7 +2419,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="18" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
@@ -2440,7 +2439,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="18" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>31</v>
       </c>
@@ -2460,7 +2459,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="18" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
@@ -2472,12 +2471,12 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="18" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="18" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>2</v>
       </c>
@@ -2497,7 +2496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="18" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>40</v>
       </c>
@@ -2517,7 +2516,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="18" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>44</v>
       </c>
@@ -2537,7 +2536,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="18" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>48</v>
       </c>
@@ -2557,7 +2556,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="18" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>54</v>
       </c>
@@ -2577,7 +2576,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="18" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>59</v>
       </c>
@@ -2597,7 +2596,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="18" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>64</v>
       </c>
@@ -2617,7 +2616,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="18" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>70</v>
       </c>
@@ -2637,7 +2636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="18" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>75</v>
       </c>
@@ -2657,7 +2656,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="18" customHeight="1">
       <c r="A25" s="5" t="s">
         <v>81</v>
       </c>
@@ -2677,7 +2676,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="18" customHeight="1">
       <c r="A26" s="5" t="s">
         <v>87</v>
       </c>
@@ -2697,7 +2696,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="18" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>92</v>
       </c>
@@ -2717,14 +2716,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="18" customHeight="1">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="18" customHeight="1">
       <c r="A29" s="7" t="s">
         <v>96</v>
       </c>
@@ -2733,7 +2732,7 @@
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="18" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>2</v>
       </c>
@@ -2753,7 +2752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="18" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>97</v>
       </c>
@@ -2773,7 +2772,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="18" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>102</v>
       </c>
@@ -2793,7 +2792,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="18" customHeight="1">
       <c r="A33" s="5" t="s">
         <v>107</v>
       </c>
@@ -2809,14 +2808,14 @@
       <c r="E33" s="5"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="18" customHeight="1">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="18" customHeight="1">
       <c r="A35" s="7" t="s">
         <v>111</v>
       </c>
@@ -2825,7 +2824,7 @@
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="18" customHeight="1">
       <c r="A36" s="5" t="s">
         <v>12</v>
       </c>
@@ -2845,7 +2844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="18" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>112</v>
       </c>
@@ -2865,7 +2864,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="18" customHeight="1">
       <c r="A38" s="5" t="s">
         <v>118</v>
       </c>
@@ -2885,7 +2884,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="18" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>122</v>
       </c>
@@ -2905,7 +2904,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="18" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>128</v>
       </c>
@@ -2921,7 +2920,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="18" customHeight="1">
       <c r="A41" s="7" t="s">
         <v>130</v>
       </c>
@@ -2930,7 +2929,7 @@
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="18" customHeight="1">
       <c r="A42" s="19" t="s">
         <v>131</v>
       </c>
@@ -2945,7 +2944,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="18" customHeight="1">
       <c r="A43" s="9" t="s">
         <v>133</v>
       </c>
@@ -2960,7 +2959,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="18" customHeight="1">
       <c r="A44" s="9" t="s">
         <v>136</v>
       </c>
@@ -2975,7 +2974,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="18" customHeight="1">
       <c r="A45" s="9" t="s">
         <v>139</v>
       </c>
@@ -2990,7 +2989,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="18" customHeight="1">
       <c r="A46" s="9" t="s">
         <v>141</v>
       </c>
@@ -3005,7 +3004,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="18" customHeight="1">
       <c r="A47" s="9" t="s">
         <v>143</v>
       </c>
@@ -3020,7 +3019,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="18" customHeight="1">
       <c r="A48" s="12" t="s">
         <v>146</v>
       </c>
@@ -3035,7 +3034,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="18" customHeight="1">
       <c r="A49" s="12" t="s">
         <v>149</v>
       </c>
@@ -3050,7 +3049,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="18" customHeight="1">
       <c r="A50" s="12" t="s">
         <v>152</v>
       </c>
@@ -3065,7 +3064,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="18" customHeight="1">
       <c r="A51" s="12" t="s">
         <v>155</v>
       </c>
@@ -3080,7 +3079,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="18" customHeight="1">
       <c r="A52" s="12" t="s">
         <v>158</v>
       </c>
@@ -3095,7 +3094,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="18" customHeight="1">
       <c r="A53" s="12" t="s">
         <v>161</v>
       </c>
@@ -3110,7 +3109,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="18" customHeight="1">
       <c r="A54" s="12" t="s">
         <v>164</v>
       </c>
@@ -3125,7 +3124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="18" customHeight="1">
       <c r="A55" s="12" t="s">
         <v>166</v>
       </c>
@@ -3140,7 +3139,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="18" customHeight="1">
       <c r="A56" s="12" t="s">
         <v>169</v>
       </c>
@@ -3155,7 +3154,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="18" customHeight="1">
       <c r="A57" s="12" t="s">
         <v>172</v>
       </c>
@@ -3170,7 +3169,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="18" customHeight="1">
       <c r="A58" s="12" t="s">
         <v>173</v>
       </c>
@@ -3185,7 +3184,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="18" customHeight="1">
       <c r="A59" s="12" t="s">
         <v>176</v>
       </c>
@@ -3200,7 +3199,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="18" customHeight="1">
       <c r="A60" s="12" t="s">
         <v>179</v>
       </c>
@@ -3215,7 +3214,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="18" customHeight="1">
       <c r="A61" s="12" t="s">
         <v>181</v>
       </c>
@@ -3230,7 +3229,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="18" customHeight="1">
       <c r="A62" s="12" t="s">
         <v>184</v>
       </c>
@@ -3245,7 +3244,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="18" customHeight="1">
       <c r="A63" s="12" t="s">
         <v>186</v>
       </c>
@@ -3260,7 +3259,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="18" customHeight="1">
       <c r="A64" s="12" t="s">
         <v>188</v>
       </c>
@@ -3275,7 +3274,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="18" customHeight="1">
       <c r="A65" s="12" t="s">
         <v>190</v>
       </c>
@@ -3290,7 +3289,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="18" customHeight="1">
       <c r="A66" s="12" t="s">
         <v>193</v>
       </c>
@@ -3305,7 +3304,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="18" customHeight="1">
       <c r="A67" s="12" t="s">
         <v>196</v>
       </c>
@@ -3320,7 +3319,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="18" customHeight="1">
       <c r="A68" s="12" t="s">
         <v>199</v>
       </c>
@@ -3335,7 +3334,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="18" customHeight="1">
       <c r="A69" s="12" t="s">
         <v>202</v>
       </c>
@@ -3350,7 +3349,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="18" customHeight="1">
       <c r="A70" s="12" t="s">
         <v>203</v>
       </c>
@@ -3365,7 +3364,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="18" customHeight="1">
       <c r="A71" s="12" t="s">
         <v>205</v>
       </c>
@@ -3380,7 +3379,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="18" customHeight="1">
       <c r="A72" s="12" t="s">
         <v>208</v>
       </c>
@@ -3395,7 +3394,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="18" customHeight="1">
       <c r="A73" s="12" t="s">
         <v>209</v>
       </c>
@@ -3410,7 +3409,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="18" customHeight="1">
       <c r="A74" s="12" t="s">
         <v>212</v>
       </c>
@@ -3425,7 +3424,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="18" customHeight="1">
       <c r="A75" s="12" t="s">
         <v>213</v>
       </c>
@@ -3440,7 +3439,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="18" customHeight="1">
       <c r="A76" s="12" t="s">
         <v>216</v>
       </c>
@@ -3455,7 +3454,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="18" customHeight="1">
       <c r="A77" s="12" t="s">
         <v>219</v>
       </c>
@@ -3470,7 +3469,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="18" customHeight="1">
       <c r="A78" s="12" t="s">
         <v>222</v>
       </c>
@@ -3485,7 +3484,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="18" customHeight="1">
       <c r="A79" s="12" t="s">
         <v>225</v>
       </c>
@@ -3500,7 +3499,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="18" customHeight="1">
       <c r="A80" s="12" t="s">
         <v>226</v>
       </c>
@@ -3515,28 +3514,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="18" customHeight="1">
       <c r="A81" s="12" t="s">
         <v>227</v>
       </c>
       <c r="B81" s="13"/>
       <c r="C81" s="4" t="s">
-        <v>228</v>
+        <v>453</v>
       </c>
       <c r="D81" s="14">
         <v>200000</v>
       </c>
       <c r="E81" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="18" customHeight="1">
+      <c r="A82" s="12" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="12" t="s">
-        <v>230</v>
       </c>
       <c r="B82" s="13"/>
       <c r="C82" s="4" t="s">
-        <v>231</v>
+        <v>454</v>
       </c>
       <c r="D82" s="14">
         <v>200000</v>
@@ -3545,148 +3544,148 @@
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="18" customHeight="1">
       <c r="A83" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B83" s="13"/>
       <c r="C83" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D83" s="14">
         <v>150000</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="18" customHeight="1">
       <c r="A84" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B84" s="13"/>
       <c r="C84" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D84" s="14">
         <v>100000</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="18" customHeight="1">
       <c r="A85" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B85" s="13"/>
       <c r="C85" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D85" s="14">
         <v>150000</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="18" customHeight="1">
       <c r="A86" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B86" s="13"/>
       <c r="C86" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D86" s="14">
         <v>100000</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="18" customHeight="1">
       <c r="A87" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B87" s="13"/>
       <c r="C87" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D87" s="14">
         <v>150000</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="18" customHeight="1">
       <c r="A88" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B88" s="13"/>
       <c r="C88" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D88" s="14">
         <v>150000</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="18" customHeight="1">
       <c r="A89" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B89" s="13"/>
       <c r="C89" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D89" s="14">
         <v>100000</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="18" customHeight="1">
       <c r="A90" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B90" s="13"/>
       <c r="C90" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D90" s="14">
         <v>100000</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="18.75" customHeight="1">
       <c r="A91" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B91" s="13"/>
       <c r="C91" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D91" s="14">
         <v>100000</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="18.75" customHeight="1">
       <c r="A92" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B92" s="13"/>
       <c r="C92" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D92" s="14">
         <v>200000</v>
@@ -3695,12 +3694,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="18" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="18" customHeight="1">
       <c r="A94" s="4" t="s">
         <v>12</v>
       </c>
@@ -3720,664 +3719,664 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="18" customHeight="1">
       <c r="A95" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C95" s="15" t="s">
         <v>262</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>264</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>148</v>
       </c>
       <c r="E95" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="18" customHeight="1">
+      <c r="A96" s="15" t="s">
         <v>265</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="15" t="s">
-        <v>267</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>73</v>
       </c>
       <c r="C96" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E96" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="F96" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="E96" s="15" t="s">
+    </row>
+    <row r="97" spans="1:6" ht="18" customHeight="1">
+      <c r="A97" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="F96" s="6" t="s">
+      <c r="B97" s="6" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="15" t="s">
+      <c r="C97" s="15" t="s">
         <v>272</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>274</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>160</v>
       </c>
       <c r="E97" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="18" customHeight="1">
+      <c r="A98" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="F97" s="6" t="s">
+      <c r="B98" s="6" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="15" t="s">
+      <c r="C98" s="15" t="s">
         <v>277</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>279</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>104</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="18" customHeight="1">
       <c r="A99" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C99" s="15" t="s">
         <v>281</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>283</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>151</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="18" customHeight="1">
       <c r="A100" s="15" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="18" customHeight="1">
       <c r="A101" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>168</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="18" customHeight="1">
       <c r="A102" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E102" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="18" customHeight="1">
+      <c r="A103" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="F102" s="6" t="s">
+      <c r="B103" s="6" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="15" t="s">
+      <c r="C103" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="D103" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C103" s="15" t="s">
+      <c r="E103" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="F103" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="E103" s="15" t="s">
+    </row>
+    <row r="104" spans="1:6" ht="18" customHeight="1">
+      <c r="A104" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="F103" s="6" t="s">
+      <c r="B104" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C104" s="15" t="s">
         <v>300</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="C104" s="15" t="s">
-        <v>302</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E104" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="18" customHeight="1">
+      <c r="A105" s="15" t="s">
         <v>303</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="15" t="s">
-        <v>305</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C105" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="E105" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="F105" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="E105" s="15" t="s">
+    </row>
+    <row r="106" spans="1:6" ht="18" customHeight="1">
+      <c r="A106" s="15" t="s">
         <v>308</v>
-      </c>
-      <c r="F105" s="6" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="15" t="s">
-        <v>310</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>123</v>
       </c>
       <c r="C106" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E106" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="F106" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="E106" s="15" t="s">
+    </row>
+    <row r="107" spans="1:6" ht="18" customHeight="1">
+      <c r="A107" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="F106" s="6" t="s">
+      <c r="B107" s="6" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="15" t="s">
+      <c r="C107" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="D107" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="C107" s="15" t="s">
+      <c r="E107" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="F107" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="E107" s="15" t="s">
+    </row>
+    <row r="108" spans="1:6" ht="18" customHeight="1">
+      <c r="A108" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="F107" s="6" t="s">
+      <c r="B108" s="6" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="15" t="s">
+      <c r="C108" s="15" t="s">
         <v>321</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="C108" s="15" t="s">
-        <v>323</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>171</v>
       </c>
       <c r="E108" s="15" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="18" customHeight="1">
       <c r="A109" s="15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>73</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>56</v>
       </c>
       <c r="E109" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="18" customHeight="1">
+      <c r="A110" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="F109" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="15" t="s">
+      <c r="C110" s="15" t="s">
         <v>328</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C110" s="15" t="s">
-        <v>330</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>104</v>
       </c>
       <c r="E110" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="18" customHeight="1">
+      <c r="A111" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="B111" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="F110" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="15" t="s">
+      <c r="C111" s="15" t="s">
         <v>332</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="C111" s="15" t="s">
-        <v>334</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F111" s="6" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" ht="18" customHeight="1">
       <c r="A112" s="15" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="18" customHeight="1">
       <c r="A113" s="15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>183</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" ht="18" customHeight="1">
       <c r="A114" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C114" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="D114" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C114" s="15" t="s">
+      <c r="E114" s="15" t="s">
         <v>344</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="E114" s="15" t="s">
-        <v>346</v>
       </c>
       <c r="F114" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" ht="18" customHeight="1">
       <c r="A115" s="15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>104</v>
       </c>
       <c r="C115" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E115" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="D115" s="6" t="s">
+      <c r="F115" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="E115" s="15" t="s">
+    </row>
+    <row r="116" spans="1:6" ht="18" customHeight="1">
+      <c r="A116" s="15" t="s">
         <v>350</v>
-      </c>
-      <c r="F115" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="15" t="s">
-        <v>352</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>187</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="18" customHeight="1">
       <c r="A117" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C117" s="15" t="s">
         <v>354</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="C117" s="15" t="s">
-        <v>356</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>178</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="18" customHeight="1">
       <c r="A118" s="15" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C118" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="E118" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="D118" s="6" t="s">
+      <c r="F118" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="18" customHeight="1">
+      <c r="A119" s="15" t="s">
         <v>360</v>
-      </c>
-      <c r="E118" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="F118" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="15" t="s">
-        <v>362</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>148</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>104</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F119" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" ht="18" customHeight="1">
       <c r="A120" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="C120" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="D120" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="C120" s="15" t="s">
+      <c r="E120" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="D120" s="6" t="s">
+      <c r="F120" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="E120" s="15" t="s">
+    </row>
+    <row r="121" spans="1:6" ht="18" customHeight="1">
+      <c r="A121" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="F120" s="6" t="s">
+      <c r="B121" s="6" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="15" t="s">
+      <c r="C121" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="D121" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="C121" s="15" t="s">
+      <c r="E121" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="D121" s="6" t="s">
+      <c r="F121" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="E121" s="15" t="s">
+    </row>
+    <row r="122" spans="1:6" ht="18" customHeight="1">
+      <c r="A122" s="15" t="s">
         <v>375</v>
-      </c>
-      <c r="F121" s="6" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="15" t="s">
-        <v>377</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>151</v>
       </c>
       <c r="C122" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="E122" s="15" t="s">
         <v>378</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="E122" s="15" t="s">
-        <v>380</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" ht="18" customHeight="1">
       <c r="A123" s="15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>168</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>187</v>
       </c>
       <c r="E123" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="18" customHeight="1">
+      <c r="A124" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="B124" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="F123" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="15" t="s">
+      <c r="C124" s="15" t="s">
         <v>384</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="D124" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C124" s="15" t="s">
+      <c r="E124" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="D124" s="6" t="s">
+      <c r="F124" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="E124" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="F124" s="6" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:6" ht="18" customHeight="1">
       <c r="A125" s="15" t="s">
         <v>156</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>201</v>
       </c>
       <c r="E125" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="18" customHeight="1">
+      <c r="A126" s="15" t="s">
         <v>392</v>
-      </c>
-      <c r="F125" s="6" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="15" t="s">
-        <v>394</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>160</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E126" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="18" customHeight="1">
+      <c r="A127" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="F126" s="6" t="s">
+      <c r="B127" s="6" t="s">
         <v>397</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>399</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="6"/>
       <c r="E127" s="4"/>
       <c r="F127" s="6"/>
     </row>
-    <row r="128" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" ht="18" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="18" customHeight="1">
       <c r="A129" s="4" t="s">
         <v>12</v>
       </c>
@@ -4397,191 +4396,191 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" ht="18" customHeight="1">
       <c r="A130" s="16" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>211</v>
       </c>
       <c r="E130" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="18" customHeight="1">
+      <c r="A131" s="16" t="s">
         <v>403</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="16" t="s">
-        <v>405</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E131" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="18" customHeight="1">
+      <c r="A132" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="F131" s="4" t="s">
+      <c r="B132" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C132" s="16" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="16" t="s">
+      <c r="D132" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="B132" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C132" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>411</v>
-      </c>
       <c r="E132" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F132" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" ht="18" customHeight="1">
       <c r="A133" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C133" s="16" t="s">
         <v>412</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>414</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E133" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="18" customHeight="1">
+      <c r="A134" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="F133" s="4" t="s">
+      <c r="B134" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C134" s="16" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="16" t="s">
+      <c r="D134" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E134" s="16" t="s">
         <v>417</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="C134" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="E134" s="16" t="s">
-        <v>419</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" ht="18" customHeight="1">
       <c r="A135" s="16" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C135" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E135" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="F135" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="D135" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="E135" s="16" t="s">
+    </row>
+    <row r="136" spans="1:6" ht="18" customHeight="1">
+      <c r="A136" s="16" t="s">
         <v>422</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="16" t="s">
-        <v>424</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" ht="18" customHeight="1">
       <c r="A137" s="16" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>168</v>
       </c>
       <c r="C137" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E137" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="F137" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="E137" s="16" t="s">
+    </row>
+    <row r="139" spans="1:6" ht="18" customHeight="1">
+      <c r="A139" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="F137" s="4" t="s">
+    </row>
+    <row r="140" spans="1:6" ht="18" customHeight="1">
+      <c r="A140" s="4" t="s">
         <v>431</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" ht="18" customHeight="1">
       <c r="A141" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C141" s="17">
         <v>1000000</v>
@@ -4590,12 +4589,12 @@
         <v>187</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" ht="18" customHeight="1">
       <c r="A142" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C142" s="17">
         <v>100000</v>
@@ -4604,40 +4603,40 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" ht="18" customHeight="1">
       <c r="A143" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C143" s="17">
         <v>100000</v>
       </c>
       <c r="D143" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="18" customHeight="1">
+      <c r="A144" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>441</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>443</v>
       </c>
       <c r="C144" s="17">
         <v>100000</v>
       </c>
       <c r="D144" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="18" customHeight="1">
+      <c r="A145" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B145" s="4" t="s">
         <v>444</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>446</v>
       </c>
       <c r="C145" s="17">
         <v>200000</v>
@@ -4646,9 +4645,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" ht="18" customHeight="1">
       <c r="A146" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>54</v>
@@ -4657,15 +4656,15 @@
         <v>100000</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="18" customHeight="1">
       <c r="A147" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C147" s="17">
         <v>500000</v>
@@ -4674,31 +4673,31 @@
         <v>163</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" ht="18" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="18" customHeight="1">
       <c r="A150" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" ht="18" customHeight="1">
       <c r="A151" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C151" s="17">
         <v>800000</v>
@@ -4707,9 +4706,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" ht="18" customHeight="1">
       <c r="A152" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>85</v>
@@ -4718,7 +4717,7 @@
         <v>1000000</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
